--- a/galaxy-sop-server/src/main/webapp/template/projectGradeTemplate.xlsx
+++ b/galaxy-sop-server/src/main/webapp/template/projectGradeTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="13935" windowHeight="4800"/>
+    <workbookView xWindow="555" yWindow="555" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,6 @@
     <definedName name="_GoBack" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="124519" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,23 +75,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">                                                                        事业部创投项目列表                                                         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>导出时间：2016-9-5  统计时段：2016-09-18～2016-09-24</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>事业部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                事业部创投项目列表                                                                 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出时间：2016-9-5  统计时段：2016-09-18～2016-09-24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,7 +390,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -417,9 +412,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -429,10 +421,22 @@
     <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -854,8 +858,8 @@
   </sheetPr>
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -864,34 +868,36 @@
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="10" customWidth="1"/>
     <col min="6" max="6" width="12.375" style="3" customWidth="1"/>
     <col min="7" max="7" width="13" style="3" customWidth="1"/>
     <col min="8" max="8" width="14" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.625" style="10" customWidth="1"/>
     <col min="11" max="11" width="14.625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="24" style="3" customWidth="1"/>
-    <col min="13" max="13" width="27.125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="24" style="10" customWidth="1"/>
+    <col min="13" max="13" width="27.125" style="10" customWidth="1"/>
     <col min="14" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="51" customHeight="1">
-      <c r="A1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
+      <c r="A1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:13" ht="23.1" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -906,8 +912,8 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>7</v>
@@ -921,16 +927,16 @@
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -938,144 +944,148 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="6"/>
       <c r="H3" s="2"/>
       <c r="I3" s="5"/>
       <c r="J3" s="1"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="7"/>
+      <c r="K3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="11"/>
     </row>
     <row r="4" spans="1:13" ht="23.1" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="2"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="6"/>
+      <c r="J4" s="13"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="23.1" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="1"/>
       <c r="F5" s="2"/>
       <c r="G5" s="6"/>
       <c r="H5" s="2"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="2"/>
+      <c r="J5" s="1"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="23.1" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="G6" s="6"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="2"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="23.1" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="2"/>
       <c r="G7" s="6"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="2"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="23.1" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="6"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="9"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="1"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="11"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="23.1" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="2"/>
       <c r="G9" s="6"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="2"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="1"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" ht="23.1" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="1"/>
       <c r="F10" s="2"/>
       <c r="G10" s="4"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="2"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="1"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" ht="23.1" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="10"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="9"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:M11"/>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="landscape" horizontalDpi="200" verticalDpi="200"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/galaxy-sop-server/src/main/webapp/template/projectGradeTemplate.xlsx
+++ b/galaxy-sop-server/src/main/webapp/template/projectGradeTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="555" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="14340" windowHeight="4800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <definedName name="_GoBack" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="124519" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -95,6 +96,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -390,7 +394,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -437,6 +441,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -859,7 +872,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -871,7 +884,7 @@
     <col min="5" max="5" width="11.5" style="10" customWidth="1"/>
     <col min="6" max="6" width="12.375" style="3" customWidth="1"/>
     <col min="7" max="7" width="13" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14" style="18" customWidth="1"/>
     <col min="9" max="9" width="10.125" style="3" customWidth="1"/>
     <col min="10" max="10" width="12.625" style="10" customWidth="1"/>
     <col min="11" max="11" width="14.625" style="3" customWidth="1"/>
@@ -921,7 +934,7 @@
       <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="16" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -948,7 +961,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="16"/>
       <c r="I3" s="5"/>
       <c r="J3" s="1"/>
       <c r="K3" s="3" t="s">
@@ -965,7 +978,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="2"/>
+      <c r="H4" s="16"/>
       <c r="I4" s="5"/>
       <c r="J4" s="13"/>
       <c r="K4" s="2"/>
@@ -980,7 +993,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="2"/>
+      <c r="H5" s="16"/>
       <c r="I5" s="5"/>
       <c r="J5" s="1"/>
       <c r="K5" s="2"/>
@@ -995,7 +1008,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="2"/>
+      <c r="H6" s="16"/>
       <c r="I6" s="8"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1010,7 +1023,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="16"/>
       <c r="I7" s="8"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1025,7 +1038,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="16"/>
       <c r="I8" s="8"/>
       <c r="J8" s="1"/>
       <c r="K8" s="2"/>
@@ -1040,7 +1053,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="16"/>
       <c r="I9" s="8"/>
       <c r="J9" s="1"/>
       <c r="K9" s="2"/>
@@ -1055,7 +1068,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="17"/>
       <c r="I10" s="7"/>
       <c r="J10" s="1"/>
       <c r="K10" s="2"/>
@@ -1070,7 +1083,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="17"/>
       <c r="I11" s="7"/>
       <c r="J11" s="9"/>
       <c r="K11" s="1"/>

--- a/galaxy-sop-server/src/main/webapp/template/projectGradeTemplate.xlsx
+++ b/galaxy-sop-server/src/main/webapp/template/projectGradeTemplate.xlsx
@@ -16,7 +16,6 @@
     <definedName name="_GoBack" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="124519" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,10 +80,6 @@
   </si>
   <si>
     <t xml:space="preserve">                                                                事业部创投项目列表                                                                 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -437,19 +432,19 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -872,7 +867,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -884,7 +879,7 @@
     <col min="5" max="5" width="11.5" style="10" customWidth="1"/>
     <col min="6" max="6" width="12.375" style="3" customWidth="1"/>
     <col min="7" max="7" width="13" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14" style="18" customWidth="1"/>
+    <col min="8" max="8" width="14" style="16" customWidth="1"/>
     <col min="9" max="9" width="10.125" style="3" customWidth="1"/>
     <col min="10" max="10" width="12.625" style="10" customWidth="1"/>
     <col min="11" max="11" width="14.625" style="3" customWidth="1"/>
@@ -894,23 +889,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="51" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:13" ht="23.1" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -934,7 +929,7 @@
       <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="14" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -961,12 +956,9 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="16"/>
+      <c r="H3" s="14"/>
       <c r="I3" s="5"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="L3" s="1"/>
       <c r="M3" s="11"/>
     </row>
@@ -978,7 +970,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="16"/>
+      <c r="H4" s="14"/>
       <c r="I4" s="5"/>
       <c r="J4" s="13"/>
       <c r="K4" s="2"/>
@@ -993,7 +985,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="16"/>
+      <c r="H5" s="14"/>
       <c r="I5" s="5"/>
       <c r="J5" s="1"/>
       <c r="K5" s="2"/>
@@ -1008,7 +1000,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="16"/>
+      <c r="H6" s="14"/>
       <c r="I6" s="8"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1023,7 +1015,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="16"/>
+      <c r="H7" s="14"/>
       <c r="I7" s="8"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1038,7 +1030,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="16"/>
+      <c r="H8" s="14"/>
       <c r="I8" s="8"/>
       <c r="J8" s="1"/>
       <c r="K8" s="2"/>
@@ -1053,7 +1045,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="16"/>
+      <c r="H9" s="14"/>
       <c r="I9" s="8"/>
       <c r="J9" s="1"/>
       <c r="K9" s="2"/>
@@ -1068,7 +1060,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="17"/>
+      <c r="H10" s="15"/>
       <c r="I10" s="7"/>
       <c r="J10" s="1"/>
       <c r="K10" s="2"/>
@@ -1083,7 +1075,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="17"/>
+      <c r="H11" s="15"/>
       <c r="I11" s="7"/>
       <c r="J11" s="9"/>
       <c r="K11" s="1"/>

--- a/galaxy-sop-server/src/main/webapp/template/projectGradeTemplate.xlsx
+++ b/galaxy-sop-server/src/main/webapp/template/projectGradeTemplate.xlsx
@@ -92,7 +92,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -432,19 +432,19 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -867,7 +867,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -879,7 +879,7 @@
     <col min="5" max="5" width="11.5" style="10" customWidth="1"/>
     <col min="6" max="6" width="12.375" style="3" customWidth="1"/>
     <col min="7" max="7" width="13" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14" style="16" customWidth="1"/>
+    <col min="8" max="8" width="14" style="18" customWidth="1"/>
     <col min="9" max="9" width="10.125" style="3" customWidth="1"/>
     <col min="10" max="10" width="12.625" style="10" customWidth="1"/>
     <col min="11" max="11" width="14.625" style="3" customWidth="1"/>
@@ -889,23 +889,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="51" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:13" ht="23.1" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -929,7 +929,7 @@
       <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="16" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -956,7 +956,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="14"/>
+      <c r="H3" s="16"/>
       <c r="I3" s="5"/>
       <c r="J3" s="1"/>
       <c r="L3" s="1"/>
@@ -970,7 +970,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="14"/>
+      <c r="H4" s="16"/>
       <c r="I4" s="5"/>
       <c r="J4" s="13"/>
       <c r="K4" s="2"/>
@@ -985,7 +985,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="14"/>
+      <c r="H5" s="16"/>
       <c r="I5" s="5"/>
       <c r="J5" s="1"/>
       <c r="K5" s="2"/>
@@ -1000,7 +1000,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="14"/>
+      <c r="H6" s="16"/>
       <c r="I6" s="8"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1015,7 +1015,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="14"/>
+      <c r="H7" s="16"/>
       <c r="I7" s="8"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1030,7 +1030,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="14"/>
+      <c r="H8" s="16"/>
       <c r="I8" s="8"/>
       <c r="J8" s="1"/>
       <c r="K8" s="2"/>
@@ -1045,7 +1045,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="14"/>
+      <c r="H9" s="16"/>
       <c r="I9" s="8"/>
       <c r="J9" s="1"/>
       <c r="K9" s="2"/>
@@ -1060,7 +1060,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="15"/>
+      <c r="H10" s="17"/>
       <c r="I10" s="7"/>
       <c r="J10" s="1"/>
       <c r="K10" s="2"/>
@@ -1075,7 +1075,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="15"/>
+      <c r="H11" s="17"/>
       <c r="I11" s="7"/>
       <c r="J11" s="9"/>
       <c r="K11" s="1"/>

--- a/galaxy-sop-server/src/main/webapp/template/projectGradeTemplate.xlsx
+++ b/galaxy-sop-server/src/main/webapp/template/projectGradeTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="14340" windowHeight="4800"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="13470" windowHeight="3030"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <definedName name="_GoBack" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="124519" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -92,7 +93,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -432,19 +433,19 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -866,8 +867,8 @@
   </sheetPr>
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -879,7 +880,7 @@
     <col min="5" max="5" width="11.5" style="10" customWidth="1"/>
     <col min="6" max="6" width="12.375" style="3" customWidth="1"/>
     <col min="7" max="7" width="13" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14" style="18" customWidth="1"/>
+    <col min="8" max="8" width="14" style="16" customWidth="1"/>
     <col min="9" max="9" width="10.125" style="3" customWidth="1"/>
     <col min="10" max="10" width="12.625" style="10" customWidth="1"/>
     <col min="11" max="11" width="14.625" style="3" customWidth="1"/>
@@ -889,23 +890,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="51" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="15" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:13" ht="23.1" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -929,7 +930,7 @@
       <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="14" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -956,7 +957,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="16"/>
+      <c r="H3" s="14"/>
       <c r="I3" s="5"/>
       <c r="J3" s="1"/>
       <c r="L3" s="1"/>
@@ -970,7 +971,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="16"/>
+      <c r="H4" s="14"/>
       <c r="I4" s="5"/>
       <c r="J4" s="13"/>
       <c r="K4" s="2"/>
@@ -985,7 +986,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="16"/>
+      <c r="H5" s="14"/>
       <c r="I5" s="5"/>
       <c r="J5" s="1"/>
       <c r="K5" s="2"/>
@@ -1000,7 +1001,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="16"/>
+      <c r="H6" s="14"/>
       <c r="I6" s="8"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1015,7 +1016,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="16"/>
+      <c r="H7" s="14"/>
       <c r="I7" s="8"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1030,7 +1031,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="16"/>
+      <c r="H8" s="14"/>
       <c r="I8" s="8"/>
       <c r="J8" s="1"/>
       <c r="K8" s="2"/>
@@ -1045,7 +1046,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="16"/>
+      <c r="H9" s="14"/>
       <c r="I9" s="8"/>
       <c r="J9" s="1"/>
       <c r="K9" s="2"/>
@@ -1060,7 +1061,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="17"/>
+      <c r="H10" s="15"/>
       <c r="I10" s="7"/>
       <c r="J10" s="1"/>
       <c r="K10" s="2"/>
@@ -1075,7 +1076,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="17"/>
+      <c r="H11" s="15"/>
       <c r="I11" s="7"/>
       <c r="J11" s="9"/>
       <c r="K11" s="1"/>

--- a/galaxy-sop-server/src/main/webapp/template/projectGradeTemplate.xlsx
+++ b/galaxy-sop-server/src/main/webapp/template/projectGradeTemplate.xlsx
@@ -16,7 +16,6 @@
     <definedName name="_GoBack" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="124519" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -92,9 +91,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
-  </numFmts>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -390,63 +386,39 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -506,74 +478,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -585,7 +489,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -867,221 +771,221 @@
   </sheetPr>
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="10" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14" style="16" customWidth="1"/>
-    <col min="9" max="9" width="10.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13" style="5" customWidth="1"/>
+    <col min="8" max="8" width="14" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.125" style="5" customWidth="1"/>
     <col min="10" max="10" width="12.625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="14.625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.625" style="5" customWidth="1"/>
     <col min="12" max="12" width="24" style="10" customWidth="1"/>
     <col min="13" max="13" width="27.125" style="10" customWidth="1"/>
-    <col min="14" max="16384" width="8.875" style="3"/>
+    <col min="14" max="16384" width="8.875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="51" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="23.1" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="60.95" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="11"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13" ht="23.1" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="23.1" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="23.1" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="23.1" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" ht="23.1" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="12"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13" ht="23.1" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" ht="23.1" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" ht="23.1" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="7"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
       <c r="J11" s="9"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:M11"/>
